--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45BIS.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45BIS.xlsx
@@ -422,12 +422,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -465,12 +465,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
